--- a/web_jfk/media/Libro1.xlsx
+++ b/web_jfk/media/Libro1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Daniel Alejandro</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Casañas Campos</t>
-  </si>
-  <si>
-    <t>True</t>
   </si>
 </sst>
 </file>
@@ -375,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,7 +385,7 @@
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1061692955</v>
       </c>
@@ -398,11 +395,8 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>96123114423</v>
       </c>
@@ -413,7 +407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1059913733</v>
       </c>
